--- a/FME_files/LOOKUP_TABLES/Country.xlsx
+++ b/FME_files/LOOKUP_TABLES/Country.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Keyword" sheetId="1" r:id="rId1"/>
+    <sheet name="Country" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -356,10 +356,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
